--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42942,6 +42942,41 @@
         <v>849700</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>212700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42977,6 +42977,41 @@
         <v>212700</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>3458900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43012,6 +43012,41 @@
         <v>3458900</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>5071500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43047,6 +43047,41 @@
         <v>5071500</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>8704400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43082,6 +43082,41 @@
         <v>8704400</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>3901500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43117,6 +43117,41 @@
         <v>3901500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>4863400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43152,6 +43152,41 @@
         <v>4863400</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>4809600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43187,6 +43187,41 @@
         <v>4809600</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>5638400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43222,6 +43222,41 @@
         <v>5638400</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>3308100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43257,6 +43257,41 @@
         <v>3308100</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>3026600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43292,6 +43292,41 @@
         <v>3026600</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>3333100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43327,6 +43327,41 @@
         <v>3333100</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>1714900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43362,6 +43362,76 @@
         <v>1714900</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>1529900</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>2101500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43432,6 +43432,76 @@
         <v>2101500</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1405300</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1497500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43502,6 +43502,41 @@
         <v>1497500</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>918300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43537,6 +43537,41 @@
         <v>918300</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>516300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43572,6 +43572,41 @@
         <v>516300</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>767300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43607,6 +43607,41 @@
         <v>767300</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>12127000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43642,6 +43642,76 @@
         <v>12127000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>2178500</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>3249000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43712,6 +43712,41 @@
         <v>3249000</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>4200400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43747,6 +43747,41 @@
         <v>4200400</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>9027300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2562"/>
+  <dimension ref="A1:I2563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90052,6 +90052,41 @@
         <v>9027300</v>
       </c>
     </row>
+    <row r="2563">
+      <c r="A2563" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2563" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2563" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D2563" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E2563" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F2563" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="G2563" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="H2563" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="I2563" t="n">
+        <v>7515200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2563"/>
+  <dimension ref="A1:I2564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90087,6 +90087,41 @@
         <v>7515200</v>
       </c>
     </row>
+    <row r="2564">
+      <c r="A2564" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2564" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2564" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D2564" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E2564" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="F2564" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="G2564" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="H2564" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="I2564" t="n">
+        <v>4966000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2564"/>
+  <dimension ref="A1:I2565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90122,6 +90122,41 @@
         <v>4966000</v>
       </c>
     </row>
+    <row r="2565">
+      <c r="A2565" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2565" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2565" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D2565" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E2565" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="F2565" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G2565" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="H2565" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2565" t="n">
+        <v>3596700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2565"/>
+  <dimension ref="A1:I2566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90157,6 +90157,41 @@
         <v>3596700</v>
       </c>
     </row>
+    <row r="2566">
+      <c r="A2566" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2566" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2566" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D2566" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E2566" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="F2566" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="G2566" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="H2566" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="I2566" t="n">
+        <v>5050100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2566"/>
+  <dimension ref="A1:I2567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90192,6 +90192,41 @@
         <v>5050100</v>
       </c>
     </row>
+    <row r="2567">
+      <c r="A2567" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2567" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2567" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D2567" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E2567" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F2567" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="G2567" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H2567" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="I2567" t="n">
+        <v>4097200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2567"/>
+  <dimension ref="A1:I2568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90227,6 +90227,41 @@
         <v>4097200</v>
       </c>
     </row>
+    <row r="2568">
+      <c r="A2568" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2568" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2568" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D2568" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E2568" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F2568" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="G2568" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="H2568" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="I2568" t="n">
+        <v>1377700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2568"/>
+  <dimension ref="A1:I2569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90262,6 +90262,41 @@
         <v>1377700</v>
       </c>
     </row>
+    <row r="2569">
+      <c r="A2569" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2569" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2569" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D2569" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E2569" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F2569" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="G2569" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H2569" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="I2569" t="n">
+        <v>1683000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2569"/>
+  <dimension ref="A1:I2570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90297,6 +90297,41 @@
         <v>1683000</v>
       </c>
     </row>
+    <row r="2570">
+      <c r="A2570" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2570" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2570" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D2570" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E2570" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="F2570" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="G2570" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="H2570" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="I2570" t="n">
+        <v>1571900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2570"/>
+  <dimension ref="A1:I2571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90332,6 +90332,41 @@
         <v>1571900</v>
       </c>
     </row>
+    <row r="2571">
+      <c r="A2571" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2571" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2571" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D2571" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E2571" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F2571" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G2571" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H2571" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I2571" t="n">
+        <v>1800000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2571"/>
+  <dimension ref="A1:I2572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90367,6 +90367,41 @@
         <v>1800000</v>
       </c>
     </row>
+    <row r="2572">
+      <c r="A2572" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2572" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2572" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D2572" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E2572" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="F2572" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="G2572" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="H2572" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I2572" t="n">
+        <v>2126700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2572"/>
+  <dimension ref="A1:I2573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90402,6 +90402,41 @@
         <v>2126700</v>
       </c>
     </row>
+    <row r="2573">
+      <c r="A2573" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2573" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2573" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D2573" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E2573" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="F2573" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="G2573" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="H2573" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="I2573" t="n">
+        <v>4510000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2573"/>
+  <dimension ref="A1:I2574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90437,6 +90437,41 @@
         <v>4510000</v>
       </c>
     </row>
+    <row r="2574">
+      <c r="A2574" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2574" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2574" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D2574" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E2574" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="F2574" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="G2574" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="H2574" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="I2574" t="n">
+        <v>2183700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2574"/>
+  <dimension ref="A1:I2575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90472,6 +90472,41 @@
         <v>2183700</v>
       </c>
     </row>
+    <row r="2575">
+      <c r="A2575" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2575" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2575" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D2575" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E2575" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="F2575" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="G2575" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="H2575" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="I2575" t="n">
+        <v>2548700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2575"/>
+  <dimension ref="A1:I2576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90507,6 +90507,41 @@
         <v>2548700</v>
       </c>
     </row>
+    <row r="2576">
+      <c r="A2576" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2576" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2576" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D2576" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E2576" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F2576" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="G2576" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="H2576" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="I2576" t="n">
+        <v>2460300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7293.xlsx
+++ b/data/7293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2576"/>
+  <dimension ref="A1:I2577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90542,6 +90542,41 @@
         <v>2460300</v>
       </c>
     </row>
+    <row r="2577">
+      <c r="A2577" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2577" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2577" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="D2577" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="E2577" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="F2577" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2577" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="H2577" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="I2577" t="n">
+        <v>2654200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
